--- a/Peaks-dataset-article/redes-ensemble-s/Teste01/content/results/metrics_30_7.xlsx
+++ b/Peaks-dataset-article/redes-ensemble-s/Teste01/content/results/metrics_30_7.xlsx
@@ -518,661 +518,661 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>model_30_7_0</t>
+          <t>model_30_7_24</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.9773259980369056</v>
+        <v>0.985588439677935</v>
       </c>
       <c r="C2" t="n">
-        <v>0.7273063709760947</v>
+        <v>0.8115932698924072</v>
       </c>
       <c r="D2" t="n">
-        <v>0.9729147287254479</v>
+        <v>0.9686967663211379</v>
       </c>
       <c r="E2" t="n">
-        <v>0.97036649366114</v>
+        <v>0.9466228187989184</v>
       </c>
       <c r="F2" t="n">
-        <v>0.9750495846920844</v>
+        <v>0.9634221543466842</v>
       </c>
       <c r="G2" t="n">
-        <v>0.1516211555313917</v>
+        <v>0.09637017023278265</v>
       </c>
       <c r="H2" t="n">
-        <v>1.82350355292156</v>
+        <v>1.259876671762695</v>
       </c>
       <c r="I2" t="n">
-        <v>0.0634961558969705</v>
+        <v>0.3629629086881901</v>
       </c>
       <c r="J2" t="n">
-        <v>0.3745455059831586</v>
+        <v>0.2331424089340803</v>
       </c>
       <c r="K2" t="n">
-        <v>0.2190208565801749</v>
+        <v>0.2980524056848143</v>
       </c>
       <c r="L2" t="n">
-        <v>1.609958425875847</v>
+        <v>0.3464800445880383</v>
       </c>
       <c r="M2" t="n">
-        <v>0.3893856128972817</v>
+        <v>0.3104354526029246</v>
       </c>
       <c r="N2" t="n">
-        <v>1.021767041884571</v>
+        <v>1.013835097909182</v>
       </c>
       <c r="O2" t="n">
-        <v>0.4059625645776582</v>
+        <v>0.3236513325102081</v>
       </c>
       <c r="P2" t="n">
-        <v>101.7727405342995</v>
+        <v>102.6791171253411</v>
       </c>
       <c r="Q2" t="n">
-        <v>161.4976559528413</v>
+        <v>162.4040325438829</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>model_30_7_1</t>
+          <t>model_30_7_23</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.976866566528608</v>
+        <v>0.9857664001992728</v>
       </c>
       <c r="C3" t="n">
-        <v>0.7258023895154797</v>
+        <v>0.8114456510927963</v>
       </c>
       <c r="D3" t="n">
-        <v>0.9609790662988231</v>
+        <v>0.9691832465396826</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9635639778526212</v>
+        <v>0.9473675294780393</v>
       </c>
       <c r="F3" t="n">
-        <v>0.9685585304141628</v>
+        <v>0.9639678267576184</v>
       </c>
       <c r="G3" t="n">
-        <v>0.1546933761428648</v>
+        <v>0.09518014740716402</v>
       </c>
       <c r="H3" t="n">
-        <v>1.833560683873891</v>
+        <v>1.260863799355416</v>
       </c>
       <c r="I3" t="n">
-        <v>0.09147699738430064</v>
+        <v>0.3573221408060696</v>
       </c>
       <c r="J3" t="n">
-        <v>0.460524252349699</v>
+        <v>0.2298896399083967</v>
       </c>
       <c r="K3" t="n">
-        <v>0.2760009208602167</v>
+        <v>0.2936060264109703</v>
       </c>
       <c r="L3" t="n">
-        <v>1.65958919851109</v>
+        <v>0.3517004680214892</v>
       </c>
       <c r="M3" t="n">
-        <v>0.3933107882360523</v>
+        <v>0.308512799421943</v>
       </c>
       <c r="N3" t="n">
-        <v>1.022208096132536</v>
+        <v>1.013664255808698</v>
       </c>
       <c r="O3" t="n">
-        <v>0.4100548427568333</v>
+        <v>0.3216468280028714</v>
       </c>
       <c r="P3" t="n">
-        <v>101.7326206795089</v>
+        <v>102.7039677891409</v>
       </c>
       <c r="Q3" t="n">
-        <v>161.4575360980507</v>
+        <v>162.4288832076827</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>model_30_7_2</t>
+          <t>model_30_7_22</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9759312392993804</v>
+        <v>0.9859571919207526</v>
       </c>
       <c r="C4" t="n">
-        <v>0.7237647725430818</v>
+        <v>0.8112751924970123</v>
       </c>
       <c r="D4" t="n">
-        <v>0.9483019642988595</v>
+        <v>0.9697166651647153</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9567098476752933</v>
+        <v>0.9481879551523162</v>
       </c>
       <c r="F4" t="n">
-        <v>0.9619313127995195</v>
+        <v>0.9645672708407466</v>
       </c>
       <c r="G4" t="n">
-        <v>0.1609479136314958</v>
+        <v>0.09390432228711283</v>
       </c>
       <c r="H4" t="n">
-        <v>1.847186237950679</v>
+        <v>1.262003656770313</v>
       </c>
       <c r="I4" t="n">
-        <v>0.1211959998913117</v>
+        <v>0.3511371192304517</v>
       </c>
       <c r="J4" t="n">
-        <v>0.5471553659947017</v>
+        <v>0.2263061607184461</v>
       </c>
       <c r="K4" t="n">
-        <v>0.3341762602599548</v>
+        <v>0.2887214918557299</v>
       </c>
       <c r="L4" t="n">
-        <v>1.706861291381728</v>
+        <v>0.357498061601121</v>
       </c>
       <c r="M4" t="n">
-        <v>0.4011831422573683</v>
+        <v>0.3064381214651872</v>
       </c>
       <c r="N4" t="n">
-        <v>1.023106010272595</v>
+        <v>1.013481095756078</v>
       </c>
       <c r="O4" t="n">
-        <v>0.4182623391868561</v>
+        <v>0.3194838267103211</v>
       </c>
       <c r="P4" t="n">
-        <v>101.6533489683153</v>
+        <v>102.7309577261613</v>
       </c>
       <c r="Q4" t="n">
-        <v>161.3782643868571</v>
+        <v>162.4558731447031</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>model_30_7_3</t>
+          <t>model_30_7_21</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.974693499372581</v>
+        <v>0.9861605881513025</v>
       </c>
       <c r="C5" t="n">
-        <v>0.7213367236413211</v>
+        <v>0.8110778417382147</v>
       </c>
       <c r="D5" t="n">
-        <v>0.9354217204605569</v>
+        <v>0.9703008493115679</v>
       </c>
       <c r="E5" t="n">
-        <v>0.9500242036027173</v>
+        <v>0.9490907053381001</v>
       </c>
       <c r="F5" t="n">
-        <v>0.9553983258580744</v>
+        <v>0.9652248437080347</v>
       </c>
       <c r="G5" t="n">
-        <v>0.169224686221272</v>
+        <v>0.09254421075687221</v>
       </c>
       <c r="H5" t="n">
-        <v>1.86342261213689</v>
+        <v>1.263323342203109</v>
       </c>
       <c r="I5" t="n">
-        <v>0.1513912289683139</v>
+        <v>0.3443634683250403</v>
       </c>
       <c r="J5" t="n">
-        <v>0.6316569404406042</v>
+        <v>0.2223631021259272</v>
       </c>
       <c r="K5" t="n">
-        <v>0.3915244197308091</v>
+        <v>0.2833632983506803</v>
       </c>
       <c r="L5" t="n">
-        <v>1.752043198010093</v>
+        <v>0.3639376331383312</v>
       </c>
       <c r="M5" t="n">
-        <v>0.4113692820584346</v>
+        <v>0.3042107998688939</v>
       </c>
       <c r="N5" t="n">
-        <v>1.024294240602322</v>
+        <v>1.01328583537475</v>
       </c>
       <c r="O5" t="n">
-        <v>0.4288821240474701</v>
+        <v>0.3171616834224822</v>
       </c>
       <c r="P5" t="n">
-        <v>101.5530558855989</v>
+        <v>102.7601375890382</v>
       </c>
       <c r="Q5" t="n">
-        <v>161.2779713041407</v>
+        <v>162.48505300758</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>model_30_7_4</t>
+          <t>model_30_7_20</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.9732827553775898</v>
+        <v>0.9863759202736218</v>
       </c>
       <c r="C6" t="n">
-        <v>0.7186504088526355</v>
+        <v>0.8108487322720203</v>
       </c>
       <c r="D6" t="n">
-        <v>0.9227422524548287</v>
+        <v>0.9709392189825202</v>
       </c>
       <c r="E6" t="n">
-        <v>0.9436525846403108</v>
+        <v>0.950082572383828</v>
       </c>
       <c r="F6" t="n">
-        <v>0.9491182859302204</v>
+        <v>0.9659448881134149</v>
       </c>
       <c r="G6" t="n">
-        <v>0.1786583378116567</v>
+        <v>0.09110428386340988</v>
       </c>
       <c r="H6" t="n">
-        <v>1.881386011498172</v>
+        <v>1.264855398258503</v>
       </c>
       <c r="I6" t="n">
-        <v>0.1811157781161306</v>
+        <v>0.3369615329542656</v>
       </c>
       <c r="J6" t="n">
-        <v>0.7121894707769464</v>
+        <v>0.2180307963132213</v>
       </c>
       <c r="K6" t="n">
-        <v>0.4466521483630424</v>
+        <v>0.2774960592229979</v>
       </c>
       <c r="L6" t="n">
-        <v>1.795200043041036</v>
+        <v>0.3710911402981674</v>
       </c>
       <c r="M6" t="n">
-        <v>0.4226799472551976</v>
+        <v>0.3018348619086435</v>
       </c>
       <c r="N6" t="n">
-        <v>1.025648554837514</v>
+        <v>1.013079116537323</v>
       </c>
       <c r="O6" t="n">
-        <v>0.440674307677964</v>
+        <v>0.3146845968643944</v>
       </c>
       <c r="P6" t="n">
-        <v>101.4445600487837</v>
+        <v>102.7915009041483</v>
       </c>
       <c r="Q6" t="n">
-        <v>161.1694754673255</v>
+        <v>162.5164163226902</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>model_30_7_5</t>
+          <t>model_30_7_19</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.9717936191667385</v>
+        <v>0.9866022131811134</v>
       </c>
       <c r="C7" t="n">
-        <v>0.7158188799676528</v>
+        <v>0.8105820932913521</v>
       </c>
       <c r="D7" t="n">
-        <v>0.910548395421494</v>
+        <v>0.9716358829504127</v>
       </c>
       <c r="E7" t="n">
-        <v>0.9376852694530026</v>
+        <v>0.9511708548097385</v>
       </c>
       <c r="F7" t="n">
-        <v>0.9431940171163024</v>
+        <v>0.9667322280758509</v>
       </c>
       <c r="G7" t="n">
-        <v>0.1886161985104615</v>
+        <v>0.08959106214903073</v>
       </c>
       <c r="H7" t="n">
-        <v>1.900320458190044</v>
+        <v>1.266638414349991</v>
       </c>
       <c r="I7" t="n">
-        <v>0.209701906692271</v>
+        <v>0.3288836716457945</v>
       </c>
       <c r="J7" t="n">
-        <v>0.7876119017452465</v>
+        <v>0.2132773645907483</v>
       </c>
       <c r="K7" t="n">
-        <v>0.4986568310195232</v>
+        <v>0.2710804662402945</v>
       </c>
       <c r="L7" t="n">
-        <v>1.836298949361647</v>
+        <v>0.3790410137412302</v>
       </c>
       <c r="M7" t="n">
-        <v>0.4342996644144012</v>
+        <v>0.2993176609373906</v>
       </c>
       <c r="N7" t="n">
-        <v>1.027078125599931</v>
+        <v>1.012861875346131</v>
       </c>
       <c r="O7" t="n">
-        <v>0.4527887002527653</v>
+        <v>0.3120602334364709</v>
       </c>
       <c r="P7" t="n">
-        <v>101.336082048585</v>
+        <v>102.8249994335558</v>
       </c>
       <c r="Q7" t="n">
-        <v>161.0609974671268</v>
+        <v>162.5499148520976</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>model_30_7_6</t>
+          <t>model_30_7_18</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.9702938374534884</v>
+        <v>0.9868376127416915</v>
       </c>
       <c r="C8" t="n">
-        <v>0.7129348003288203</v>
+        <v>0.8102709755420059</v>
       </c>
       <c r="D8" t="n">
-        <v>0.8990209323156912</v>
+        <v>0.9723944844320316</v>
       </c>
       <c r="E8" t="n">
-        <v>0.9321738882943994</v>
+        <v>0.9523627354773766</v>
       </c>
       <c r="F8" t="n">
-        <v>0.9376869911575827</v>
+        <v>0.9675913892488479</v>
       </c>
       <c r="G8" t="n">
-        <v>0.1986452457328245</v>
+        <v>0.08801694420352985</v>
       </c>
       <c r="H8" t="n">
-        <v>1.919606312014883</v>
+        <v>1.268718860172435</v>
       </c>
       <c r="I8" t="n">
-        <v>0.2367258041841276</v>
+        <v>0.3200876410782091</v>
       </c>
       <c r="J8" t="n">
-        <v>0.8572716652949982</v>
+        <v>0.208071433446346</v>
       </c>
       <c r="K8" t="n">
-        <v>0.546998853699417</v>
+        <v>0.2640796423834211</v>
       </c>
       <c r="L8" t="n">
-        <v>1.875246304383696</v>
+        <v>0.3878632032864124</v>
       </c>
       <c r="M8" t="n">
-        <v>0.4456963604662085</v>
+        <v>0.2966764975584177</v>
       </c>
       <c r="N8" t="n">
-        <v>1.028517916044651</v>
+        <v>1.012635891767976</v>
       </c>
       <c r="O8" t="n">
-        <v>0.4646705772499113</v>
+        <v>0.3093066302644932</v>
       </c>
       <c r="P8" t="n">
-        <v>101.2324694597815</v>
+        <v>102.860451870543</v>
       </c>
       <c r="Q8" t="n">
-        <v>160.9573848783234</v>
+        <v>162.5853672890848</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>model_30_7_7</t>
+          <t>model_30_7_17</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.9688301196270431</v>
+        <v>0.9870795487223148</v>
       </c>
       <c r="C9" t="n">
-        <v>0.7100706612879034</v>
+        <v>0.8099069349128045</v>
       </c>
       <c r="D9" t="n">
-        <v>0.8882639018136625</v>
+        <v>0.9732188032738484</v>
       </c>
       <c r="E9" t="n">
-        <v>0.9271398490187082</v>
+        <v>0.9536656220102003</v>
       </c>
       <c r="F9" t="n">
-        <v>0.9326265592290691</v>
+        <v>0.9685270767536146</v>
       </c>
       <c r="G9" t="n">
-        <v>0.2084331335780644</v>
+        <v>0.08639911718708868</v>
       </c>
       <c r="H9" t="n">
-        <v>1.938758822969641</v>
+        <v>1.271153201536157</v>
       </c>
       <c r="I9" t="n">
-        <v>0.2619435721297277</v>
+        <v>0.3105296137005347</v>
       </c>
       <c r="J9" t="n">
-        <v>0.9208981820524949</v>
+        <v>0.2023806476462121</v>
       </c>
       <c r="K9" t="n">
-        <v>0.5914205645996393</v>
+        <v>0.2564552482512956</v>
       </c>
       <c r="L9" t="n">
-        <v>1.911920431966947</v>
+        <v>0.3976633308379618</v>
       </c>
       <c r="M9" t="n">
-        <v>0.4565447771884641</v>
+        <v>0.2939372674348877</v>
       </c>
       <c r="N9" t="n">
-        <v>1.029923085158039</v>
+        <v>1.012403633226578</v>
       </c>
       <c r="O9" t="n">
-        <v>0.4759808335313518</v>
+        <v>0.3064507854436164</v>
       </c>
       <c r="P9" t="n">
-        <v>101.1362739828855</v>
+        <v>102.8975556419327</v>
       </c>
       <c r="Q9" t="n">
-        <v>160.8611894014273</v>
+        <v>162.6224710604745</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>model_30_7_8</t>
+          <t>model_30_7_16</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.96743265690807</v>
+        <v>0.9873242616747956</v>
       </c>
       <c r="C10" t="n">
-        <v>0.7072808497992908</v>
+        <v>0.8094799433665103</v>
       </c>
       <c r="D10" t="n">
-        <v>0.8783204105291178</v>
+        <v>0.9741124769649938</v>
       </c>
       <c r="E10" t="n">
-        <v>0.9225825828511006</v>
+        <v>0.9550859265230275</v>
       </c>
       <c r="F10" t="n">
-        <v>0.9280179518599764</v>
+        <v>0.9695435899756031</v>
       </c>
       <c r="G10" t="n">
-        <v>0.2177779732145623</v>
+        <v>0.08476272054705031</v>
       </c>
       <c r="H10" t="n">
-        <v>1.957414305239894</v>
+        <v>1.274008495972342</v>
       </c>
       <c r="I10" t="n">
-        <v>0.2852541554487447</v>
+        <v>0.3001674126038695</v>
       </c>
       <c r="J10" t="n">
-        <v>0.9784986409090337</v>
+        <v>0.1961770001682193</v>
       </c>
       <c r="K10" t="n">
-        <v>0.6318760488536499</v>
+        <v>0.2481722505565799</v>
       </c>
       <c r="L10" t="n">
-        <v>1.946225504850181</v>
+        <v>0.408545780410735</v>
       </c>
       <c r="M10" t="n">
-        <v>0.4666668760631746</v>
+        <v>0.2911403794513058</v>
       </c>
       <c r="N10" t="n">
-        <v>1.031264649368253</v>
+        <v>1.012168708792196</v>
       </c>
       <c r="O10" t="n">
-        <v>0.4865338511107918</v>
+        <v>0.3035348281482171</v>
       </c>
       <c r="P10" t="n">
-        <v>101.0485584133608</v>
+        <v>102.9357988980685</v>
       </c>
       <c r="Q10" t="n">
-        <v>160.7734738319026</v>
+        <v>162.6607143166103</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>model_30_7_9</t>
+          <t>model_30_7_15</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.9661194737396414</v>
+        <v>0.9875666257124966</v>
       </c>
       <c r="C11" t="n">
-        <v>0.7046039374408757</v>
+        <v>0.8089777069611761</v>
       </c>
       <c r="D11" t="n">
-        <v>0.8691924049330856</v>
+        <v>0.9750788942180282</v>
       </c>
       <c r="E11" t="n">
-        <v>0.9184854863464665</v>
+        <v>0.95662976599451</v>
       </c>
       <c r="F11" t="n">
-        <v>0.9238495372709872</v>
+        <v>0.9706449652964599</v>
       </c>
       <c r="G11" t="n">
-        <v>0.2265592351084973</v>
+        <v>0.08314203111095957</v>
       </c>
       <c r="H11" t="n">
-        <v>1.975314830506664</v>
+        <v>1.277366953127397</v>
       </c>
       <c r="I11" t="n">
-        <v>0.3066529910180466</v>
+        <v>0.2889617454588602</v>
       </c>
       <c r="J11" t="n">
-        <v>1.030282897076441</v>
+        <v>0.1894337730945935</v>
       </c>
       <c r="K11" t="n">
-        <v>0.668467413069221</v>
+        <v>0.239197759082845</v>
       </c>
       <c r="L11" t="n">
-        <v>1.97812741515778</v>
+        <v>0.4206254040084127</v>
       </c>
       <c r="M11" t="n">
-        <v>0.4759823894940834</v>
+        <v>0.288343599046276</v>
       </c>
       <c r="N11" t="n">
-        <v>1.032525305209944</v>
+        <v>1.011936039316003</v>
       </c>
       <c r="O11" t="n">
-        <v>0.4962459452342257</v>
+        <v>0.3006189830112117</v>
       </c>
       <c r="P11" t="n">
-        <v>100.9694976891851</v>
+        <v>102.9744098308938</v>
       </c>
       <c r="Q11" t="n">
-        <v>160.694413107727</v>
+        <v>162.6993252494357</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>model_30_7_10</t>
+          <t>model_30_7_14</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.9648998161535616</v>
+        <v>0.9877997765926231</v>
       </c>
       <c r="C12" t="n">
-        <v>0.7020654349946041</v>
+        <v>0.8083855814120897</v>
       </c>
       <c r="D12" t="n">
-        <v>0.8608554870768479</v>
+        <v>0.9761210822554982</v>
       </c>
       <c r="E12" t="n">
-        <v>0.9148218481321874</v>
+        <v>0.9583026421254197</v>
       </c>
       <c r="F12" t="n">
-        <v>0.9200986977002041</v>
+        <v>0.971834829194629</v>
       </c>
       <c r="G12" t="n">
-        <v>0.2347150910026194</v>
+        <v>0.08158295010199285</v>
       </c>
       <c r="H12" t="n">
-        <v>1.992289808053612</v>
+        <v>1.281326499400626</v>
       </c>
       <c r="I12" t="n">
-        <v>0.3261972750879377</v>
+        <v>0.2768775114349607</v>
       </c>
       <c r="J12" t="n">
-        <v>1.076588562461269</v>
+        <v>0.1821269359362328</v>
       </c>
       <c r="K12" t="n">
-        <v>0.7013932014999682</v>
+        <v>0.2295022236855968</v>
       </c>
       <c r="L12" t="n">
-        <v>2.007623870797507</v>
+        <v>0.434031158297897</v>
       </c>
       <c r="M12" t="n">
-        <v>0.4844740354266877</v>
+        <v>0.2856272922918832</v>
       </c>
       <c r="N12" t="n">
-        <v>1.033696176492581</v>
+        <v>1.011712214471082</v>
       </c>
       <c r="O12" t="n">
-        <v>0.5050990981143113</v>
+        <v>0.2977870374547542</v>
       </c>
       <c r="P12" t="n">
-        <v>100.8987657581517</v>
+        <v>103.0122699673452</v>
       </c>
       <c r="Q12" t="n">
-        <v>160.6236811766935</v>
+        <v>162.737185385887</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>model_30_7_11</t>
+          <t>model_30_7_13</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.9637764057149663</v>
+        <v>0.9880144954981271</v>
       </c>
       <c r="C13" t="n">
-        <v>0.6996804916149156</v>
+        <v>0.8076856284468037</v>
       </c>
       <c r="D13" t="n">
-        <v>0.8532681500607864</v>
+        <v>0.9772417239230506</v>
       </c>
       <c r="E13" t="n">
-        <v>0.9115579661952858</v>
+        <v>0.9601070610680666</v>
       </c>
       <c r="F13" t="n">
-        <v>0.9167358563442777</v>
+        <v>0.9731157667083705</v>
       </c>
       <c r="G13" t="n">
-        <v>0.2422273417783354</v>
+        <v>0.08014712379219731</v>
       </c>
       <c r="H13" t="n">
-        <v>2.008237935415242</v>
+        <v>1.28600708810248</v>
       </c>
       <c r="I13" t="n">
-        <v>0.3439843125198773</v>
+        <v>0.2638836027728446</v>
       </c>
       <c r="J13" t="n">
-        <v>1.117841605470999</v>
+        <v>0.1742455422479787</v>
       </c>
       <c r="K13" t="n">
-        <v>0.7309130465698253</v>
+        <v>0.2190645803339045</v>
       </c>
       <c r="L13" t="n">
-        <v>2.034779951118363</v>
+        <v>0.4489091476047257</v>
       </c>
       <c r="M13" t="n">
-        <v>0.4921659697483516</v>
+        <v>0.2831026735871587</v>
       </c>
       <c r="N13" t="n">
-        <v>1.034774650513632</v>
+        <v>1.011506084321798</v>
       </c>
       <c r="O13" t="n">
-        <v>0.5131184940045476</v>
+        <v>0.2951549405050884</v>
       </c>
       <c r="P13" t="n">
-        <v>100.8357571299529</v>
+        <v>103.0477825717661</v>
       </c>
       <c r="Q13" t="n">
-        <v>160.5606725484948</v>
+        <v>162.7726979903079</v>
       </c>
     </row>
     <row r="14">
@@ -1182,712 +1182,712 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.9627480851446467</v>
+        <v>0.9881990530209431</v>
       </c>
       <c r="C14" t="n">
-        <v>0.6974563585263321</v>
+        <v>0.8068563033768252</v>
       </c>
       <c r="D14" t="n">
-        <v>0.8463805724827251</v>
+        <v>0.9784433998703634</v>
       </c>
       <c r="E14" t="n">
-        <v>0.9086582153992113</v>
+        <v>0.9620439223720525</v>
       </c>
       <c r="F14" t="n">
-        <v>0.9137285657596816</v>
+        <v>0.9744898607131233</v>
       </c>
       <c r="G14" t="n">
-        <v>0.2491037261670433</v>
+        <v>0.07891298678731751</v>
       </c>
       <c r="H14" t="n">
-        <v>2.023110723619792</v>
+        <v>1.291552788664117</v>
       </c>
       <c r="I14" t="n">
-        <v>0.3601308999110824</v>
+        <v>0.2499500966816894</v>
       </c>
       <c r="J14" t="n">
-        <v>1.154492301366426</v>
+        <v>0.1657856629508437</v>
       </c>
       <c r="K14" t="n">
-        <v>0.7573117798852882</v>
+        <v>0.2078678568407992</v>
       </c>
       <c r="L14" t="n">
-        <v>2.059672508483548</v>
+        <v>0.465405893103564</v>
       </c>
       <c r="M14" t="n">
-        <v>0.4991029214170593</v>
+        <v>0.2809145542461577</v>
       </c>
       <c r="N14" t="n">
-        <v>1.035761838261139</v>
+        <v>1.011328909099895</v>
       </c>
       <c r="O14" t="n">
-        <v>0.5203507660672617</v>
+        <v>0.2928736683937097</v>
       </c>
       <c r="P14" t="n">
-        <v>100.7797717966141</v>
+        <v>103.0788189332204</v>
       </c>
       <c r="Q14" t="n">
-        <v>160.5046872151559</v>
+        <v>162.8037343517623</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>model_30_7_13</t>
+          <t>model_30_7_11</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.9618110718625444</v>
+        <v>0.9883381164862957</v>
       </c>
       <c r="C15" t="n">
-        <v>0.6953943833899516</v>
+        <v>0.8058712751836622</v>
       </c>
       <c r="D15" t="n">
-        <v>0.8401393938930877</v>
+        <v>0.9797279988870446</v>
       </c>
       <c r="E15" t="n">
-        <v>0.9060864237975133</v>
+        <v>0.9641099629296117</v>
       </c>
       <c r="F15" t="n">
-        <v>0.9110437387314676</v>
+        <v>0.9759575664244811</v>
       </c>
       <c r="G15" t="n">
-        <v>0.2553695382990104</v>
+        <v>0.07798306875417717</v>
       </c>
       <c r="H15" t="n">
-        <v>2.036899160851291</v>
+        <v>1.298139676727436</v>
       </c>
       <c r="I15" t="n">
-        <v>0.374762130467772</v>
+        <v>0.2350550925304901</v>
       </c>
       <c r="J15" t="n">
-        <v>1.186997836679272</v>
+        <v>0.1567615507421025</v>
       </c>
       <c r="K15" t="n">
-        <v>0.7808798491230977</v>
+        <v>0.1959083439090186</v>
       </c>
       <c r="L15" t="n">
-        <v>2.082413216089237</v>
+        <v>0.4836832844166535</v>
       </c>
       <c r="M15" t="n">
-        <v>0.5053410118909907</v>
+        <v>0.2792544874378515</v>
       </c>
       <c r="N15" t="n">
-        <v>1.036661371011957</v>
+        <v>1.011195408173156</v>
       </c>
       <c r="O15" t="n">
-        <v>0.5268544249672958</v>
+        <v>0.2911429291045618</v>
       </c>
       <c r="P15" t="n">
-        <v>100.7300872261137</v>
+        <v>103.1025270862184</v>
       </c>
       <c r="Q15" t="n">
-        <v>160.4550026446556</v>
+        <v>162.8274425047602</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>model_30_7_14</t>
+          <t>model_30_7_10</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.9609600276214997</v>
+        <v>0.988412151162855</v>
       </c>
       <c r="C16" t="n">
-        <v>0.6934918366842036</v>
+        <v>0.8046986422789472</v>
       </c>
       <c r="D16" t="n">
-        <v>0.8344912822231314</v>
+        <v>0.9810972997259469</v>
       </c>
       <c r="E16" t="n">
-        <v>0.9038077406328382</v>
+        <v>0.9662963340253505</v>
       </c>
       <c r="F16" t="n">
-        <v>0.9086490163769032</v>
+        <v>0.977517797763125</v>
       </c>
       <c r="G16" t="n">
-        <v>0.2610604750575753</v>
+        <v>0.07748799853112619</v>
       </c>
       <c r="H16" t="n">
-        <v>2.04962149943305</v>
+        <v>1.305981078360744</v>
       </c>
       <c r="I16" t="n">
-        <v>0.3880030308628141</v>
+        <v>0.2191779655711507</v>
       </c>
       <c r="J16" t="n">
-        <v>1.215798699092551</v>
+        <v>0.1472118552989481</v>
       </c>
       <c r="K16" t="n">
-        <v>0.8019013084814113</v>
+        <v>0.1831948913914692</v>
       </c>
       <c r="L16" t="n">
-        <v>2.103128092895307</v>
+        <v>0.5039218415897579</v>
       </c>
       <c r="M16" t="n">
-        <v>0.5109407745106818</v>
+        <v>0.2783666620325181</v>
       </c>
       <c r="N16" t="n">
-        <v>1.03747837348336</v>
+        <v>1.011124334883659</v>
       </c>
       <c r="O16" t="n">
-        <v>0.5326925810748139</v>
+        <v>0.2902173071336714</v>
       </c>
       <c r="P16" t="n">
-        <v>100.686006386595</v>
+        <v>103.1152644245548</v>
       </c>
       <c r="Q16" t="n">
-        <v>160.4109218051368</v>
+        <v>162.8401798430966</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>model_30_7_15</t>
+          <t>model_30_7_9</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.9601888938305765</v>
+        <v>0.9883964667040603</v>
       </c>
       <c r="C17" t="n">
-        <v>0.6917431094973669</v>
+        <v>0.8032994801880331</v>
       </c>
       <c r="D17" t="n">
-        <v>0.8293848320512214</v>
+        <v>0.9825532567408368</v>
       </c>
       <c r="E17" t="n">
-        <v>0.9017889916268402</v>
+        <v>0.9685874249654758</v>
       </c>
       <c r="F17" t="n">
-        <v>0.9065138951038711</v>
+        <v>0.9791677436433607</v>
       </c>
       <c r="G17" t="n">
-        <v>0.2662170502682231</v>
+        <v>0.07759288057930673</v>
       </c>
       <c r="H17" t="n">
-        <v>2.061315246183575</v>
+        <v>1.315337281705235</v>
       </c>
       <c r="I17" t="n">
-        <v>0.3999741111192764</v>
+        <v>0.2022960549522416</v>
       </c>
       <c r="J17" t="n">
-        <v>1.241314186840045</v>
+        <v>0.1372047614650568</v>
       </c>
       <c r="K17" t="n">
-        <v>0.8206439259629591</v>
+        <v>0.1697504052531934</v>
       </c>
       <c r="L17" t="n">
-        <v>2.121958820436283</v>
+        <v>0.5263083201550295</v>
       </c>
       <c r="M17" t="n">
-        <v>0.5159622566314547</v>
+        <v>0.2785549866351467</v>
       </c>
       <c r="N17" t="n">
-        <v>1.038218661922647</v>
+        <v>1.011139391964102</v>
       </c>
       <c r="O17" t="n">
-        <v>0.537927838085369</v>
+        <v>0.2904136491045195</v>
       </c>
       <c r="P17" t="n">
-        <v>100.6468866489558</v>
+        <v>103.1125592022277</v>
       </c>
       <c r="Q17" t="n">
-        <v>160.3718020674976</v>
+        <v>162.8374746207695</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>model_30_7_16</t>
+          <t>model_30_7_8</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.9594914148243781</v>
+        <v>0.9882599326299821</v>
       </c>
       <c r="C18" t="n">
-        <v>0.6901409089430754</v>
+        <v>0.8016261416140213</v>
       </c>
       <c r="D18" t="n">
-        <v>0.8247706630343515</v>
+        <v>0.984097960342397</v>
       </c>
       <c r="E18" t="n">
-        <v>0.9000011062816439</v>
+        <v>0.9709579220593447</v>
       </c>
       <c r="F18" t="n">
-        <v>0.9046105958076227</v>
+        <v>0.9809021357483827</v>
       </c>
       <c r="G18" t="n">
-        <v>0.2708810955942679</v>
+        <v>0.0785058845613493</v>
       </c>
       <c r="H18" t="n">
-        <v>2.072029168667577</v>
+        <v>1.326526904454667</v>
       </c>
       <c r="I18" t="n">
-        <v>0.4107911338568484</v>
+        <v>0.1843851222340658</v>
       </c>
       <c r="J18" t="n">
-        <v>1.263911729419011</v>
+        <v>0.1268508351167573</v>
       </c>
       <c r="K18" t="n">
-        <v>0.8373515533530541</v>
+        <v>0.1556178140611891</v>
       </c>
       <c r="L18" t="n">
-        <v>2.139039790751574</v>
+        <v>0.5510285645177359</v>
       </c>
       <c r="M18" t="n">
-        <v>0.5204623863395585</v>
+        <v>0.280189015775689</v>
       </c>
       <c r="N18" t="n">
-        <v>1.038888241768597</v>
+        <v>1.011270464675217</v>
       </c>
       <c r="O18" t="n">
-        <v>0.5426195476316996</v>
+        <v>0.2921172422484813</v>
       </c>
       <c r="P18" t="n">
-        <v>100.6121506320625</v>
+        <v>103.0891633888767</v>
       </c>
       <c r="Q18" t="n">
-        <v>160.3370660506043</v>
+        <v>162.8140788074186</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>model_30_7_17</t>
+          <t>model_30_7_7</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.9588614310739834</v>
+        <v>0.9879634642223603</v>
       </c>
       <c r="C19" t="n">
-        <v>0.6886766294272405</v>
+        <v>0.7996199791062526</v>
       </c>
       <c r="D19" t="n">
-        <v>0.8206038124382029</v>
+        <v>0.9857342504164995</v>
       </c>
       <c r="E19" t="n">
-        <v>0.8984168531251331</v>
+        <v>0.9733694578691466</v>
       </c>
       <c r="F19" t="n">
-        <v>0.9029137307934731</v>
+        <v>0.9827126555099867</v>
       </c>
       <c r="G19" t="n">
-        <v>0.2750937998339651</v>
+        <v>0.08048837016822845</v>
       </c>
       <c r="H19" t="n">
-        <v>2.081820812532353</v>
+        <v>1.339942122381646</v>
       </c>
       <c r="I19" t="n">
-        <v>0.4205595054699849</v>
+        <v>0.1654122387662821</v>
       </c>
       <c r="J19" t="n">
-        <v>1.283935512407277</v>
+        <v>0.1163176586680049</v>
       </c>
       <c r="K19" t="n">
-        <v>0.8522470500537472</v>
+        <v>0.1408649011750515</v>
       </c>
       <c r="L19" t="n">
-        <v>2.154507923677142</v>
+        <v>0.5782775706659108</v>
       </c>
       <c r="M19" t="n">
-        <v>0.5244938510926178</v>
+        <v>0.2837047235564266</v>
       </c>
       <c r="N19" t="n">
-        <v>1.039493026168976</v>
+        <v>1.011555074346534</v>
       </c>
       <c r="O19" t="n">
-        <v>0.5468226401855791</v>
+        <v>0.2957826209879634</v>
       </c>
       <c r="P19" t="n">
-        <v>100.5812862983366</v>
+        <v>103.0392851499086</v>
       </c>
       <c r="Q19" t="n">
-        <v>160.3062017168785</v>
+        <v>162.7642005684504</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>model_30_7_18</t>
+          <t>model_30_7_6</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.9582927677424304</v>
+        <v>0.98745819328451</v>
       </c>
       <c r="C20" t="n">
-        <v>0.6873413599340497</v>
+        <v>0.7972084873123267</v>
       </c>
       <c r="D20" t="n">
-        <v>0.8168418966690854</v>
+        <v>0.9874661995454684</v>
       </c>
       <c r="E20" t="n">
-        <v>0.8970121521503854</v>
+        <v>0.9757671492516914</v>
       </c>
       <c r="F20" t="n">
-        <v>0.9014000327397381</v>
+        <v>0.9845875479705447</v>
       </c>
       <c r="G20" t="n">
-        <v>0.2788964541505138</v>
+        <v>0.08386711925619107</v>
       </c>
       <c r="H20" t="n">
-        <v>2.09074976578167</v>
+        <v>1.356067779111527</v>
       </c>
       <c r="I20" t="n">
-        <v>0.4293785860590573</v>
+        <v>0.1453301827078047</v>
       </c>
       <c r="J20" t="n">
-        <v>1.301689889203787</v>
+        <v>0.1058449523124354</v>
       </c>
       <c r="K20" t="n">
-        <v>0.8655346623135558</v>
+        <v>0.1255874511697634</v>
       </c>
       <c r="L20" t="n">
-        <v>2.168608683137122</v>
+        <v>0.6082240860699102</v>
       </c>
       <c r="M20" t="n">
-        <v>0.5281064799361146</v>
+        <v>0.2895982031301145</v>
       </c>
       <c r="N20" t="n">
-        <v>1.040038942967267</v>
+        <v>1.01204013444687</v>
       </c>
       <c r="O20" t="n">
-        <v>0.5505890661181162</v>
+        <v>0.3019269981882877</v>
       </c>
       <c r="P20" t="n">
-        <v>100.5538293962487</v>
+        <v>102.9570432926041</v>
       </c>
       <c r="Q20" t="n">
-        <v>160.2787448147905</v>
+        <v>162.681958711146</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>model_30_7_19</t>
+          <t>model_30_7_5</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.9577799192765051</v>
+        <v>0.986682668481621</v>
       </c>
       <c r="C21" t="n">
-        <v>0.6861258519953272</v>
+        <v>0.7943005171413763</v>
       </c>
       <c r="D21" t="n">
-        <v>0.8134465962659316</v>
+        <v>0.9892980796740881</v>
       </c>
       <c r="E21" t="n">
-        <v>0.8957658432593479</v>
+        <v>0.9780748865274045</v>
       </c>
       <c r="F21" t="n">
-        <v>0.9000494902421634</v>
+        <v>0.9865093914059258</v>
       </c>
       <c r="G21" t="n">
-        <v>0.2823258742036065</v>
+        <v>0.08905305718407337</v>
       </c>
       <c r="H21" t="n">
-        <v>2.098877872964807</v>
+        <v>1.375513389034644</v>
       </c>
       <c r="I21" t="n">
-        <v>0.4373382081551538</v>
+        <v>0.1240894205976307</v>
       </c>
       <c r="J21" t="n">
-        <v>1.317442307728517</v>
+        <v>0.09576515012842958</v>
       </c>
       <c r="K21" t="n">
-        <v>0.8773900551403404</v>
+        <v>0.1099274239310367</v>
       </c>
       <c r="L21" t="n">
-        <v>2.181705258795631</v>
+        <v>0.6410139244192795</v>
       </c>
       <c r="M21" t="n">
-        <v>0.5313434616174424</v>
+        <v>0.2984175885970419</v>
       </c>
       <c r="N21" t="n">
-        <v>1.040531277494555</v>
+        <v>1.012784638257644</v>
       </c>
       <c r="O21" t="n">
-        <v>0.5539638528110939</v>
+        <v>0.311121843153187</v>
       </c>
       <c r="P21" t="n">
-        <v>100.529386585866</v>
+        <v>102.8370458774801</v>
       </c>
       <c r="Q21" t="n">
-        <v>160.2543020044078</v>
+        <v>162.5619612960219</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>model_30_7_20</t>
+          <t>model_30_7_4</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.9573175750485006</v>
+        <v>0.985559358601679</v>
       </c>
       <c r="C22" t="n">
-        <v>0.6850210225680757</v>
+        <v>0.7907798318437465</v>
       </c>
       <c r="D22" t="n">
-        <v>0.8103836813588861</v>
+        <v>0.9912322082385198</v>
       </c>
       <c r="E22" t="n">
-        <v>0.8946589674788034</v>
+        <v>0.9801895380655532</v>
       </c>
       <c r="F22" t="n">
-        <v>0.8988436009944211</v>
+        <v>0.9884522826960767</v>
       </c>
       <c r="G22" t="n">
-        <v>0.2854175721851725</v>
+        <v>0.09656463552361252</v>
       </c>
       <c r="H22" t="n">
-        <v>2.106265872432109</v>
+        <v>1.39905622783116</v>
       </c>
       <c r="I22" t="n">
-        <v>0.444518617037366</v>
+        <v>0.1016630816217605</v>
       </c>
       <c r="J22" t="n">
-        <v>1.33143239531869</v>
+        <v>0.08652871346080422</v>
       </c>
       <c r="K22" t="n">
-        <v>0.8879756463107423</v>
+        <v>0.09409588949617449</v>
       </c>
       <c r="L22" t="n">
-        <v>2.193544229430578</v>
+        <v>0.6767114281548094</v>
       </c>
       <c r="M22" t="n">
-        <v>0.5342448616366586</v>
+        <v>0.3107485084817183</v>
       </c>
       <c r="N22" t="n">
-        <v>1.040975127953439</v>
+        <v>1.013863015742388</v>
       </c>
       <c r="O22" t="n">
-        <v>0.5569887714358542</v>
+        <v>0.323977715825877</v>
       </c>
       <c r="P22" t="n">
-        <v>100.5076040109185</v>
+        <v>102.6750853933595</v>
       </c>
       <c r="Q22" t="n">
-        <v>160.2325194294604</v>
+        <v>162.4000008119013</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>model_30_7_21</t>
+          <t>model_30_7_3</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.9569010096218216</v>
+        <v>0.9839886083768137</v>
       </c>
       <c r="C23" t="n">
-        <v>0.6840181005144992</v>
+        <v>0.7864941724762737</v>
       </c>
       <c r="D23" t="n">
-        <v>0.8076197599914123</v>
+        <v>0.9932608186524747</v>
       </c>
       <c r="E23" t="n">
-        <v>0.8936756933331278</v>
+        <v>0.9819739900915064</v>
       </c>
       <c r="F23" t="n">
-        <v>0.8977666334805493</v>
+        <v>0.9903738602084983</v>
       </c>
       <c r="G23" t="n">
-        <v>0.2882031471114824</v>
+        <v>0.1070682495099262</v>
       </c>
       <c r="H23" t="n">
-        <v>2.112972416822407</v>
+        <v>1.427714451755097</v>
       </c>
       <c r="I23" t="n">
-        <v>0.4509980936598125</v>
+        <v>0.07814121982313618</v>
       </c>
       <c r="J23" t="n">
-        <v>1.343860250065303</v>
+        <v>0.07873453185367195</v>
       </c>
       <c r="K23" t="n">
-        <v>0.8974295309249354</v>
+        <v>0.07843802911490844</v>
       </c>
       <c r="L23" t="n">
-        <v>2.204235794064089</v>
+        <v>0.7152654406363946</v>
       </c>
       <c r="M23" t="n">
-        <v>0.5368455523812061</v>
+        <v>0.3272128504657576</v>
       </c>
       <c r="N23" t="n">
-        <v>1.041375030763051</v>
+        <v>1.015370935958259</v>
       </c>
       <c r="O23" t="n">
-        <v>0.5597001789695691</v>
+        <v>0.3411429789340634</v>
       </c>
       <c r="P23" t="n">
-        <v>100.4881793511783</v>
+        <v>102.4685776039406</v>
       </c>
       <c r="Q23" t="n">
-        <v>160.2130947697202</v>
+        <v>162.1934930224824</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>model_30_7_22</t>
+          <t>model_30_7_2</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.9565256239914326</v>
+        <v>0.9818381840565563</v>
       </c>
       <c r="C24" t="n">
-        <v>0.6831086311656469</v>
+        <v>0.7812374347704287</v>
       </c>
       <c r="D24" t="n">
-        <v>0.8051272485517506</v>
+        <v>0.9953454517452557</v>
       </c>
       <c r="E24" t="n">
-        <v>0.892800577453809</v>
+        <v>0.9832453127603726</v>
       </c>
       <c r="F24" t="n">
-        <v>0.8968038112412831</v>
+        <v>0.9921978119073257</v>
       </c>
       <c r="G24" t="n">
-        <v>0.2907133525503848</v>
+        <v>0.121448146841281</v>
       </c>
       <c r="H24" t="n">
-        <v>2.119054042545904</v>
+        <v>1.462866280999134</v>
       </c>
       <c r="I24" t="n">
-        <v>0.4568413024408315</v>
+        <v>0.05396977163775752</v>
       </c>
       <c r="J24" t="n">
-        <v>1.354921064673783</v>
+        <v>0.07318161161917358</v>
       </c>
       <c r="K24" t="n">
-        <v>0.9058814203614863</v>
+        <v>0.06357566688502272</v>
       </c>
       <c r="L24" t="n">
-        <v>2.213889521714917</v>
+        <v>0.7564279195404984</v>
       </c>
       <c r="M24" t="n">
-        <v>0.5391784051224463</v>
+        <v>0.3484941130654592</v>
       </c>
       <c r="N24" t="n">
-        <v>1.041735400968225</v>
+        <v>1.017435343305706</v>
       </c>
       <c r="O24" t="n">
-        <v>0.5621323460816748</v>
+        <v>0.3633302289409209</v>
       </c>
       <c r="P24" t="n">
-        <v>100.4708350801326</v>
+        <v>102.2165357645295</v>
       </c>
       <c r="Q24" t="n">
-        <v>160.1957504986744</v>
+        <v>161.9414511830714</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>model_30_7_23</t>
+          <t>model_30_7_1</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.9561875230594399</v>
+        <v>0.9789244527668755</v>
       </c>
       <c r="C25" t="n">
-        <v>0.6822847212625454</v>
+        <v>0.7747206640572524</v>
       </c>
       <c r="D25" t="n">
-        <v>0.8028796173530106</v>
+        <v>0.9973712283724693</v>
       </c>
       <c r="E25" t="n">
-        <v>0.8920215540014645</v>
+        <v>0.983755806234635</v>
       </c>
       <c r="F25" t="n">
-        <v>0.8959428854117516</v>
+        <v>0.993775944023046</v>
       </c>
       <c r="G25" t="n">
-        <v>0.2929742350394324</v>
+        <v>0.1409322813918758</v>
       </c>
       <c r="H25" t="n">
-        <v>2.1245635318617</v>
+        <v>1.506443956765114</v>
       </c>
       <c r="I25" t="n">
-        <v>0.4621104370766796</v>
+        <v>0.03048076776968399</v>
       </c>
       <c r="J25" t="n">
-        <v>1.364767342390453</v>
+        <v>0.07095186333242373</v>
       </c>
       <c r="K25" t="n">
-        <v>0.9134388381562975</v>
+        <v>0.05071635094725492</v>
       </c>
       <c r="L25" t="n">
-        <v>2.22259913574694</v>
+        <v>0.7996537265652064</v>
       </c>
       <c r="M25" t="n">
-        <v>0.5412709442039471</v>
+        <v>0.3754094849519333</v>
       </c>
       <c r="N25" t="n">
-        <v>1.042059977862938</v>
+        <v>1.0202325253438</v>
       </c>
       <c r="O25" t="n">
-        <v>0.5643139688840282</v>
+        <v>0.391391443931103</v>
       </c>
       <c r="P25" t="n">
-        <v>100.4553412177012</v>
+        <v>101.9189515555777</v>
       </c>
       <c r="Q25" t="n">
-        <v>160.180256636243</v>
+        <v>161.6438669741196</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>model_30_7_24</t>
+          <t>model_30_7_0</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.9558830513455193</v>
+        <v>0.9749788889171509</v>
       </c>
       <c r="C26" t="n">
-        <v>0.6815388338841546</v>
+        <v>0.7665298697620946</v>
       </c>
       <c r="D26" t="n">
-        <v>0.8008530831078612</v>
+        <v>0.999060363764391</v>
       </c>
       <c r="E26" t="n">
-        <v>0.8913275425138732</v>
+        <v>0.9831529871584969</v>
       </c>
       <c r="F26" t="n">
-        <v>0.895172682218961</v>
+        <v>0.9948161915211541</v>
       </c>
       <c r="G26" t="n">
-        <v>0.2950102387923822</v>
+        <v>0.1673162850226344</v>
       </c>
       <c r="H26" t="n">
-        <v>2.129551284195494</v>
+        <v>1.561215835931974</v>
       </c>
       <c r="I26" t="n">
-        <v>0.466861252863467</v>
+        <v>0.0108951396103139</v>
       </c>
       <c r="J26" t="n">
-        <v>1.373539132026334</v>
+        <v>0.07358487407596243</v>
       </c>
       <c r="K26" t="n">
-        <v>0.9201998704254588</v>
+        <v>0.04223995591138154</v>
       </c>
       <c r="L26" t="n">
-        <v>2.230454758763882</v>
+        <v>0.844809092406035</v>
       </c>
       <c r="M26" t="n">
-        <v>0.5431484500506121</v>
+        <v>0.4090431334500488</v>
       </c>
       <c r="N26" t="n">
-        <v>1.042352270708301</v>
+        <v>1.024020266639535</v>
       </c>
       <c r="O26" t="n">
-        <v>0.5662714040415586</v>
+        <v>0.4264569464770339</v>
       </c>
       <c r="P26" t="n">
-        <v>100.4414904309477</v>
+        <v>101.5757386709675</v>
       </c>
       <c r="Q26" t="n">
-        <v>160.1664058494895</v>
+        <v>161.3006540895093</v>
       </c>
     </row>
   </sheetData>
